--- a/public/csvfile/products_export.xlsx
+++ b/public/csvfile/products_export.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BharathRaj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E64FEA-B4CD-404C-8E91-4CF44E9D0976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="51">
   <si>
     <t>Product Name</t>
   </si>
@@ -94,12 +94,75 @@
     <t>Bin Location</t>
   </si>
   <si>
-    <t>Glob</t>
+    <t>DJI Phantom 4 Quadcopter Camera, White</t>
+  </si>
+  <si>
+    <t>Amcrest Security Camera in White Color</t>
+  </si>
+  <si>
+    <t>Edifier R1280T Powered Bookshelf Speakers</t>
+  </si>
+  <si>
+    <t>LG White Front Load Steam Washer</t>
+  </si>
+  <si>
+    <t>EPSION Plaster Printer</t>
+  </si>
+  <si>
+    <t>Samsung UHD TV 24inch</t>
+  </si>
+  <si>
+    <t>Apple iPhone Retina 6s Plus 64GB</t>
+  </si>
+  <si>
+    <t>Samsung Gear VR Virtual Reality Headset</t>
+  </si>
+  <si>
+    <t>Apple Macbook Retina Display 12”</t>
+  </si>
+  <si>
+    <t>ASUS Chromebook Flip - 10.2 Inch</t>
+  </si>
+  <si>
+    <t>Lenovo Legion 7 16ITHG6 16" WQXGA IPS Laptop, Intel Core i9-11980HK 2.60Ghz, 32GB RAM, 1TB SSD, 16GB NVIDIA GeForce RTX 3080, DOS , Eng-Arab KB Storm Grey | 82K60096AX</t>
+  </si>
+  <si>
+    <t>Sunmi T2 L1522 15.6" FHD EPOS Touch Terminal with Built-In Printer, 10.1" HD Consumer Display, Qualcomm Snapdragon Octa-core CPU, 2GB RAM, 16GB ROM, Bluetooth, Wi-Fi , Black | L1522</t>
+  </si>
+  <si>
+    <t>Redragon Air Gaming Speaker, RGB Backlight, 160Hz~20KHz Frequency, USB + 3.5mm, ≥60db Signal to Noise Ratio, 5V Power Input, 3Wx2 Speaker RMS, Black | GS530</t>
+  </si>
+  <si>
+    <t>Star X 43-Inch FHD LED Television - Black | 43LN5150</t>
+  </si>
+  <si>
+    <t>Logitech G903 LIGHTSPEED Wireless Gaming Mouse with Hero 16K Sensor, 140+ Hours with Rechargeable Battery and Lightsync RGB, Powerplay Compatible | 910-005673</t>
+  </si>
+  <si>
+    <t>Logitech Brio 4k Stream Edition Webcam, Ultra HD 4K/30fps, 1080p/60fps Streaming, USB 3.0 Cable and USB 2.0, Autofocus, Built-In Stereo Microphone, 65°/78°/90°, Webcam - Black I 960-001194</t>
+  </si>
+  <si>
+    <t>Dell Alienware Aurora R13 Gaming Desktop, 12th Gen Core i7-12700KF, 32GB RAM, 512GB SSD+1TB HDD, Nvidia GeForce RTX 3080 Ti 12GB GDDR6X, KB Arabic, Optical Mouse, Windows 11, Black | AUR13-ALNW-3080</t>
+  </si>
+  <si>
+    <t>Honeywell Mini Dome IP Camera, 4MP Progressive Scan Imager, 2688x1520 Resolution, 2.7 mm-13.5 mm MFZ Lens, H.265 Smart Codec | H4W4PER2</t>
+  </si>
+  <si>
+    <t>Apple AirPods 3 with Charging Case, Up to 6 Hours of Playback, Bluetooth, Wireless, Force Sensor for Audio/Calls Control, IPX4 Sweat &amp; Water Resistance, White | MME73</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 7070 Small Form Factor i7 9700, 8GB RAM, 1TB HDD, DOS | 7070 SFF</t>
+  </si>
+  <si>
+    <t>D-link 4G N300 LTE Router DWR-M921</t>
   </si>
   <si>
     <t>Bag</t>
   </si>
   <si>
+    <t>Ctn</t>
+  </si>
+  <si>
     <t>with</t>
   </si>
   <si>
@@ -109,19 +172,13 @@
     <t>General</t>
   </si>
   <si>
-    <t xml:space="preserve">	000000000000</t>
-  </si>
-  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>Globsasf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,16 +511,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="192.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,186 +620,992 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>150</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>150</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <v>105</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>108</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11">
+        <v>109</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>111</v>
+      </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14">
+        <v>112</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>113</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>115</v>
+      </c>
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18">
+        <v>116</v>
+      </c>
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>118</v>
+      </c>
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21">
+        <v>119</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>150</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>150</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23">
+        <v>121</v>
+      </c>
+      <c r="N23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="B2:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="B1:C23">
       <formula1>"Bag,Board,Btl,Box,Bdl,Can,Ctn,Dzn,Ft,Kg,K,G,Ltr,Mt,Mtr,Ml,Mts,Nos,Pac,Prs,Pcs,Qtl,Rol,Rft,Sqf,Sqm,Tbs,Str,Units"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="T2:T4" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="T1:T23">
       <formula1>"product,service"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="L2:L4 N2:N4" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="N1:N23 L1:L23">
       <formula1>"with,without"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="P2:P4" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="P1:P23">
       <formula1>"Default"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="Q2:Q4" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="Q1:Q23">
       <formula1>"General"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="R2:R4" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Pick from list" prompt="Please select a valid option." sqref="R1:R23">
       <formula1>""</formula1>
     </dataValidation>
-    <dataValidation showDropDown="1" sqref="B2:B4 L2:L4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation showDropDown="1" sqref="L2:L23 B2:B23"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
